--- a/LR3/table_1_54.xlsx
+++ b/LR3/table_1_54.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C5556-B5BC-44B2-93B3-A7E2B548BDC3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5305A19-C6EF-4E62-81BC-16213108145D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="8730" xr2:uid="{7B69FF06-7F4A-47EA-BD5A-5EE27051576B}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -608,11 +608,11 @@
       </c>
       <c r="D3" s="1">
         <f>A1*1.1</f>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
-        <v>1078.0000000000002</v>
+        <v>4158</v>
       </c>
       <c r="F3" s="2">
         <v>44813</v>
@@ -633,7 +633,7 @@
       </c>
       <c r="K3" s="1">
         <f>E3+J3</f>
-        <v>1078.0000000000002</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -650,11 +650,11 @@
       </c>
       <c r="D4" s="1">
         <f>D3</f>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
-        <v>1070.3000000000002</v>
+        <v>4128.3</v>
       </c>
       <c r="F4" s="2">
         <v>44813</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
-        <v>1070.3000000000002</v>
+        <v>4128.3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -692,11 +692,11 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D38" si="5">D4</f>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>1062.6000000000001</v>
+        <v>4098.6000000000004</v>
       </c>
       <c r="F5" s="2">
         <v>44813</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>1062.6000000000001</v>
+        <v>4098.6000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -729,16 +729,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C5:C38" si="6">C5-0.5</f>
+        <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>1054.9000000000001</v>
+        <v>4068.9000000000005</v>
       </c>
       <c r="F6" s="2">
         <v>44813</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>1054.9000000000001</v>
+        <v>4068.9000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -776,11 +776,11 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>1047.2</v>
+        <v>4039.2000000000003</v>
       </c>
       <c r="F7" s="2">
         <v>44813</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>1047.2</v>
+        <v>4039.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -818,11 +818,11 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>1039.5000000000002</v>
+        <v>4009.5000000000005</v>
       </c>
       <c r="F8" s="2">
         <v>44813</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>1039.5000000000002</v>
+        <v>4009.5000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -860,11 +860,11 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>1031.8000000000002</v>
+        <v>3979.8</v>
       </c>
       <c r="F9" s="2">
         <v>44813</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>1031.8000000000002</v>
+        <v>3979.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -902,11 +902,11 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>1024.1000000000001</v>
+        <v>3950.1000000000004</v>
       </c>
       <c r="F10" s="2">
         <v>44813</v>
@@ -927,7 +927,7 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>1024.1000000000001</v>
+        <v>3950.1000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -944,11 +944,11 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1016.4000000000001</v>
+        <v>3920.4000000000005</v>
       </c>
       <c r="F11" s="2">
         <v>44813</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>1016.4000000000001</v>
+        <v>3920.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -986,11 +986,11 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>1008.7000000000002</v>
+        <v>3890.7000000000003</v>
       </c>
       <c r="F12" s="2">
         <v>44813</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>1018.7000000000002</v>
+        <v>3900.7000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>1001.0000000000001</v>
+        <v>3861.0000000000005</v>
       </c>
       <c r="F13" s="2">
         <v>44813</v>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>1021.0000000000001</v>
+        <v>3881.0000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1070,11 +1070,11 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>993.30000000000018</v>
+        <v>3831.3</v>
       </c>
       <c r="F14" s="2">
         <v>44813</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>1023.3000000000002</v>
+        <v>3861.3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>985.60000000000014</v>
+        <v>3801.6000000000004</v>
       </c>
       <c r="F15" s="2">
         <v>44813</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>1025.6000000000001</v>
+        <v>3841.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>977.90000000000009</v>
+        <v>3771.9000000000005</v>
       </c>
       <c r="F16" s="2">
         <v>44813</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>1027.9000000000001</v>
+        <v>3821.9000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1196,11 +1196,11 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>970.20000000000016</v>
+        <v>3742.2000000000003</v>
       </c>
       <c r="F17" s="2">
         <v>44813</v>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>1030.2000000000003</v>
+        <v>3802.2000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>962.50000000000011</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="F18" s="2">
         <v>44813</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>1032.5</v>
+        <v>3782.5000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1280,11 +1280,11 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>954.80000000000018</v>
+        <v>3682.8</v>
       </c>
       <c r="F19" s="2">
         <v>44813</v>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>1034.8000000000002</v>
+        <v>3762.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>947.10000000000014</v>
+        <v>3653.1000000000004</v>
       </c>
       <c r="F20" s="2">
         <v>44813</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>1037.1000000000001</v>
+        <v>3743.1000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1364,11 +1364,11 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>939.40000000000009</v>
+        <v>3623.4000000000005</v>
       </c>
       <c r="F21" s="2">
         <v>44813</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>1039.4000000000001</v>
+        <v>3723.4000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>931.70000000000016</v>
+        <v>3593.7000000000003</v>
       </c>
       <c r="F22" s="2">
         <v>44813</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>1041.7000000000003</v>
+        <v>3703.7000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>924.00000000000011</v>
+        <v>3564.0000000000005</v>
       </c>
       <c r="F23" s="2">
         <v>44813</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>1044</v>
+        <v>3684.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1490,11 +1490,11 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>916.30000000000018</v>
+        <v>3534.3</v>
       </c>
       <c r="F24" s="2">
         <v>44813</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>1046.3000000000002</v>
+        <v>3664.3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>908.60000000000014</v>
+        <v>3504.6000000000004</v>
       </c>
       <c r="F25" s="2">
         <v>44813</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>1048.6000000000001</v>
+        <v>3644.6000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1574,11 +1574,11 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>900.90000000000009</v>
+        <v>3474.9000000000005</v>
       </c>
       <c r="F26" s="2">
         <v>44813</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>1050.9000000000001</v>
+        <v>3624.9000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1616,11 +1616,11 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>893.20000000000016</v>
+        <v>3445.2000000000003</v>
       </c>
       <c r="F27" s="2">
         <v>44813</v>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>1053.2000000000003</v>
+        <v>3605.2000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1658,11 +1658,11 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>885.50000000000011</v>
+        <v>3415.5000000000005</v>
       </c>
       <c r="F28" s="2">
         <v>44813</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>1055.5</v>
+        <v>3585.5000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1700,11 +1700,11 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>877.80000000000007</v>
+        <v>3385.8</v>
       </c>
       <c r="F29" s="2">
         <v>44813</v>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>1057.8000000000002</v>
+        <v>3565.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1742,11 +1742,11 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>870.10000000000014</v>
+        <v>3356.1000000000004</v>
       </c>
       <c r="F30" s="2">
         <v>44813</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>1060.1000000000001</v>
+        <v>3546.1000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>862.40000000000009</v>
+        <v>3326.4000000000005</v>
       </c>
       <c r="F31" s="2">
         <v>44813</v>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>1062.4000000000001</v>
+        <v>3526.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1826,11 +1826,11 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>854.70000000000016</v>
+        <v>3296.7000000000003</v>
       </c>
       <c r="F32" s="2">
         <v>44813</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>1064.7000000000003</v>
+        <v>3506.7000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>847.00000000000011</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="F33" s="2">
         <v>44813</v>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>1067</v>
+        <v>3487.0000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1910,11 +1910,11 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="5"/>
-        <v>15.400000000000002</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>839.30000000000007</v>
+        <v>3237.3</v>
       </c>
       <c r="F34" s="2">
         <v>44813</v>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>1069.3000000000002</v>
+        <v>3467.3</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1952,11 +1952,11 @@
       </c>
       <c r="D35" s="1">
         <f>D3/3</f>
-        <v>5.1333333333333337</v>
+        <v>19.8</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>277.20000000000005</v>
+        <v>1069.2</v>
       </c>
       <c r="F35" s="2">
         <v>44813</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>517.20000000000005</v>
+        <v>1309.2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1994,11 +1994,11 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="5"/>
-        <v>5.1333333333333337</v>
+        <v>19.8</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>274.63333333333338</v>
+        <v>1059.3</v>
       </c>
       <c r="F36" s="2">
         <v>44813</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>524.63333333333344</v>
+        <v>1309.3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2036,11 +2036,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="5"/>
-        <v>5.1333333333333337</v>
+        <v>19.8</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>272.06666666666666</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="F37" s="2">
         <v>44813</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>532.06666666666661</v>
+        <v>1309.4000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2078,11 +2078,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="5"/>
-        <v>5.1333333333333337</v>
+        <v>19.8</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>269.5</v>
+        <v>1039.5</v>
       </c>
       <c r="F38" s="2">
         <v>44813</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>539.5</v>
+        <v>1309.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C40" s="1">
         <f>FLOOR(AVERAGE(K3:K38), 1)</f>
-        <v>987</v>
+        <v>3508</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
-        <v>1078.0000000000002</v>
+        <v>4158</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_54.xlsx
+++ b/LR3/table_1_54.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEAF2FD-06CC-4215-B66E-913F33863025}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -125,15 +123,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -176,16 +165,25 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
@@ -325,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -377,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -571,78 +569,76 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="5"/>
+    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>54</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -682,7 +678,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -727,7 +723,7 @@
         <v>4128.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -772,7 +768,7 @@
         <v>4098.6000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -817,97 +813,97 @@
         <v>4068.9000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4039.2000000000003</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="8"/>
+        <v>44809</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>4039.2000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>4039.2000000000003</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="8"/>
-        <v>44809</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>4009.5000000000005</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="8"/>
+        <v>44810</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I8" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>4039.2000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="5"/>
-        <v>67.5</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
         <v>4009.5000000000005</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="8"/>
-        <v>44810</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="3"/>
-        <v>4009.5000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -952,7 +948,7 @@
         <v>3979.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -997,7 +993,7 @@
         <v>3950.1000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1042,7 +1038,7 @@
         <v>3920.4000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1087,7 +1083,7 @@
         <v>3900.7000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1132,7 +1128,7 @@
         <v>3881.0000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1177,97 +1173,97 @@
         <v>3861.3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>3801.6000000000004</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="8"/>
+        <v>44817</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>3841.6000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="5"/>
+        <v>63.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>3771.9000000000005</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="8"/>
+        <v>44818</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>3801.6000000000004</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="8"/>
-        <v>44817</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="3"/>
-        <v>3841.6000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="5"/>
-        <v>63.5</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>3771.9000000000005</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="8"/>
-        <v>44818</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
         <v>3821.9000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1312,7 +1308,7 @@
         <v>3802.2000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1357,7 +1353,7 @@
         <v>3782.5000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1402,7 +1398,7 @@
         <v>3762.8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1447,7 +1443,7 @@
         <v>3743.1000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1492,7 +1488,7 @@
         <v>3723.4000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1537,7 +1533,7 @@
         <v>3703.7000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1582,7 +1578,7 @@
         <v>3684.0000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1627,7 +1623,7 @@
         <v>3664.3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1672,7 +1668,7 @@
         <v>3644.6000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1717,373 +1713,373 @@
         <v>3624.9000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C26-0.5</f>
+        <v>58</v>
+      </c>
+      <c r="D27" s="1">
+        <f>D26</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E27" s="1">
+        <f>C27*D27</f>
+        <v>3445.2000000000003</v>
+      </c>
+      <c r="F27" s="3">
+        <f>$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
+        <f>G26+1</f>
+        <v>44829</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="3"/>
+        <v>3605.2000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="5"/>
+        <v>57.5</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>3415.5000000000005</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="8"/>
+        <v>44830</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="3"/>
+        <v>3585.5000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>3385.8</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="8"/>
+        <v>44831</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
+        <v>3565.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="5"/>
+        <v>56.5</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>3356.1000000000004</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="8"/>
+        <v>44832</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="3"/>
+        <v>3546.1000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>3445.2000000000003</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="8"/>
-        <v>44829</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="3"/>
-        <v>3605.2000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <f t="shared" si="4"/>
+      <c r="C31" s="1">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>3326.4000000000005</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="8"/>
+        <v>44833</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="3"/>
+        <v>3526.4000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="5"/>
+        <v>55.5</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>3296.7000000000003</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="8"/>
+        <v>44834</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="3"/>
+        <v>3506.7000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="5"/>
-        <v>57.5</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>3415.5000000000005</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="8"/>
-        <v>44830</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="3"/>
-        <v>3585.5000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <f t="shared" si="4"/>
+      <c r="C33" s="1">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>3267.0000000000005</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="8"/>
+        <v>44835</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="3"/>
+        <v>3487.0000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>3385.8</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="8"/>
-        <v>44831</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="3"/>
-        <v>3565.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <f t="shared" si="4"/>
+      <c r="C34" s="1">
+        <f t="shared" si="5"/>
+        <v>54.5</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="6"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>3237.3</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="8"/>
+        <v>44836</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="3"/>
+        <v>3467.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="5"/>
-        <v>56.5</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>3356.1000000000004</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="8"/>
-        <v>44832</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="3"/>
-        <v>3546.1000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>3326.4000000000005</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="8"/>
-        <v>44833</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="3"/>
-        <v>3526.4000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="5"/>
-        <v>55.5</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>3296.7000000000003</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="8"/>
-        <v>44834</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="3"/>
-        <v>3506.7000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>3267.0000000000005</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="8"/>
-        <v>44835</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="3"/>
-        <v>3487.0000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="5"/>
-        <v>54.5</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>3237.3</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="8"/>
-        <v>44836</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="3"/>
-        <v>3467.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2094,7 +2090,7 @@
         <v>29.700000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1603.8000000000002</v>
       </c>
       <c r="F35" s="3">
@@ -2122,13 +2118,13 @@
         <v>1843.8000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2167,13 +2163,13 @@
         <v>1838.95</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2212,13 +2208,13 @@
         <v>1834.1000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2257,49 +2253,41 @@
         <v>1829.2500000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>128430</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>4158</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
